--- a/conde_london.xlsx
+++ b/conde_london.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gold List 2019, 2024   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2019. Gold List, 2024. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gold List 2024   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2024. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -610,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hot List 2022   Readers' Choice Awards 2023</t>
+          <t>Hot List, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gold List 2020, 2022   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Gold List, 2022. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hot List 2023</t>
+          <t>Hot List, 2023.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hot List 2021   Readers' Choice Awards 2022</t>
+          <t>Hot List, 2021. Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2023</t>
+          <t>Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hot List 2020   Readers' Choice Awards 2020, 2021</t>
+          <t>Hot List, 2020. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2022</t>
+          <t>Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2018, 2019, 2020, 2021, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2019, 2020</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020.</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rs' Choice Awards 2022, 2023</t>
+          <t>Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hot List 2022   Readers' Choice Awards 2023</t>
+          <t>Hot List, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gold List 2023   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2023. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2018, 2019, 2020, 2021</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019, 2020, 2021</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2019, 2021, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2019. Readers' Choice Awards, 2021. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2020, 2021, 2022</t>
+          <t>Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C33" t="n">
